--- a/biology/Histoire de la zoologie et de la botanique/Robert_Jacob_Gordon/Robert_Jacob_Gordon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Jacob_Gordon/Robert_Jacob_Gordon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Jacob Gordon (Doesburg, 23 septembre 1743-Le Cap, 25 octobre 1795) est un explorateur, militaire, naturaliste et linguiste gueldrois d'origine écossaise.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille de militaires au service des Pays-Bas, il entre dans l'armée en 1753 comme cadet et en parallèle mène de brillantes études de sciences humaines à l'Université de Harderwijk.
 Au service de la Compagnie hollandaise des Indes orientales, il est envoyé au Cap pour y commander la garnison (1780-1795). Il dirige alors six expéditions de 1773 à 1786), est chargé de nommer le fleuve Orange et d'introduire les brebis Mérinos.
